--- a/design/Functional Requirements Matrix.xlsx
+++ b/design/Functional Requirements Matrix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Brewer              Buddy</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>USE 03</t>
+  </si>
+  <si>
+    <t>REC 01</t>
+  </si>
+  <si>
+    <t>REC 02</t>
+  </si>
+  <si>
+    <t>REC 03</t>
+  </si>
+  <si>
+    <t>REC 04</t>
+  </si>
+  <si>
+    <t>REC 05</t>
+  </si>
+  <si>
+    <t>REC 06</t>
+  </si>
+  <si>
+    <t>REC 07</t>
   </si>
 </sst>
 </file>
@@ -706,20 +727,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="10" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="38" width="3.140625" customWidth="1"/>
+    <col min="3" max="47" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -808,14 +829,37 @@
       <c r="AD1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="13" t="s">
@@ -854,8 +898,17 @@
       <c r="AH2" s="14"/>
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -896,8 +949,17 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -952,8 +1014,17 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -998,8 +1069,17 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -1040,8 +1120,17 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10</v>
       </c>
@@ -1088,8 +1177,17 @@
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1128,8 +1226,17 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1174,8 +1281,17 @@
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -1216,8 +1332,17 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -1264,8 +1389,17 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1304,8 +1438,17 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -1350,8 +1493,17 @@
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -1390,8 +1542,17 @@
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -1430,8 +1591,17 @@
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1470,8 +1640,17 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1510,8 +1689,17 @@
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1550,8 +1738,17 @@
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>28</v>
       </c>
@@ -1590,8 +1787,17 @@
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>34</v>
       </c>
@@ -1630,8 +1836,17 @@
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>35</v>
       </c>
@@ -1670,8 +1885,17 @@
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1710,8 +1934,17 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>29</v>
       </c>
@@ -1744,14 +1977,29 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
+      <c r="AE23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG23" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>30</v>
       </c>
@@ -1787,11 +2035,22 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
+      <c r="AH24" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>31</v>
       </c>
@@ -1830,8 +2089,19 @@
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +2140,17 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>33</v>
       </c>
@@ -1910,8 +2189,17 @@
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1950,8 +2238,17 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>36</v>
       </c>
@@ -1990,11 +2287,20 @@
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:AJ2"/>
+    <mergeCell ref="C2:AS2"/>
     <mergeCell ref="B3:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2007,7 +2313,7 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2507,9 @@
       <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -2242,17 +2550,17 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -2287,17 +2595,19 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="9"/>
       <c r="K6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -2337,11 +2647,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -2371,10 +2681,10 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2695,13 +3005,13 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2984,11 +3294,11 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>

--- a/design/Functional Requirements Matrix.xlsx
+++ b/design/Functional Requirements Matrix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>Brewer              Buddy</t>
   </si>
@@ -2310,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,12 +2734,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
@@ -2814,7 +2824,9 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -3295,7 +3307,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="8" t="s">
         <v>23</v>
       </c>
@@ -3321,11 +3333,135 @@
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
     </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>41</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>42</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:AJ2"/>
-    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="B3:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
